--- a/Dokumentacio/Adatbazis-Adatok.xlsx
+++ b/Dokumentacio/Adatbazis-Adatok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KapusKevin\Documents\GitHub\13_S1_8_vizsgaremek\Dokumentacio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kapuskevin\Documents\GitHub\13_S1_8_vizsgaremek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE58550-6F13-42AC-B59D-3DB3F65D071B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF706B09-013C-4D88-B420-4684B0740B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{43FA6DD8-45CF-439C-98C4-55D5AD1D3ED9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{43FA6DD8-45CF-439C-98C4-55D5AD1D3ED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD2AB9-7AE8-4178-B74F-EB28CFA9AF2A}">
   <dimension ref="B4:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
